--- a/public/assets/templates/coach_format.xlsx
+++ b/public/assets/templates/coach_format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\WaveCoach\Backend\wavecoach\public\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cinta Ramayanti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7290962-AC9E-469A-9615-BA989F6498D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C33154F-378E-4EE0-AF45-AE1C7D8039D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EDEE44-B9CE-4DE1-A98A-5267917B9606}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -45,16 +45,25 @@
     <t>tanggal_bergabung</t>
   </si>
   <si>
-    <t>nisa</t>
-  </si>
-  <si>
-    <t>nisa@gmail.com</t>
-  </si>
-  <si>
-    <t>sela</t>
-  </si>
-  <si>
-    <t>sela@gmail.com</t>
+    <t>package</t>
+  </si>
+  <si>
+    <t>haiya, halo, tes</t>
+  </si>
+  <si>
+    <t>private pool, junior</t>
+  </si>
+  <si>
+    <t>gaisok</t>
+  </si>
+  <si>
+    <t>gaisok@gmail.com</t>
+  </si>
+  <si>
+    <t>muak</t>
+  </si>
+  <si>
+    <t>muak@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,29 +449,36 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>45825</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>45912</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
